--- a/biology/Médecine/Éric_Dewailly/Éric_Dewailly.xlsx
+++ b/biology/Médecine/Éric_Dewailly/Éric_Dewailly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Dewailly</t>
+          <t>Éric_Dewailly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Dewailly est un épidémiologiste, chercheur et professeur français naturalisé canadien né en 1957 et décédé le 17 juin 2014 à La Réunion[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Dewailly est un épidémiologiste, chercheur et professeur français naturalisé canadien né en 1957 et décédé le 17 juin 2014 à La Réunion,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Dewailly</t>
+          <t>Éric_Dewailly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Dewailly a obtenu un diplôme de médecine en 1982 de l’université de Lille qu’il a complété avec une spécialité en Santé publique en 1983 à Amiens.  Par la suite il fait une résidence en santé communautaire à l’Université Laval de 1983 à 1985.  Il poursuit sa formation avec une maîtrise en épidémiologie en 1987 à l’Université Laval et un doctorat en toxicologie en 1990 à l’université de Lille[3].
-Éric Dewailly fut médecin au CHUL de 1987 jusqu’à sa mort et professeur à la Faculté de médecine de l’Université Laval de 1997 jusqu’à sa mort[3].  Il était un spécialiste d’épidémiologie environnementale[1].  Éric Dewailly est mort par accident victime d’un éboulement à l’île de la Réunion en 2014[4]. Un fonds de recherche a été créé à sa mémoire à l’Université Laval (Fonds en santé des populations Éric-Dewailly)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Dewailly a obtenu un diplôme de médecine en 1982 de l’université de Lille qu’il a complété avec une spécialité en Santé publique en 1983 à Amiens.  Par la suite il fait une résidence en santé communautaire à l’Université Laval de 1983 à 1985.  Il poursuit sa formation avec une maîtrise en épidémiologie en 1987 à l’Université Laval et un doctorat en toxicologie en 1990 à l’université de Lille.
+Éric Dewailly fut médecin au CHUL de 1987 jusqu’à sa mort et professeur à la Faculté de médecine de l’Université Laval de 1997 jusqu’à sa mort.  Il était un spécialiste d’épidémiologie environnementale.  Éric Dewailly est mort par accident victime d’un éboulement à l’île de la Réunion en 2014. Un fonds de recherche a été créé à sa mémoire à l’Université Laval (Fonds en santé des populations Éric-Dewailly).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Dewailly</t>
+          <t>Éric_Dewailly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Acfas Michel-Jurdant (2002)[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Acfas Michel-Jurdant (2002)</t>
         </is>
       </c>
     </row>
